--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t xml:space="preserve">TASK </t>
   </si>
@@ -35,10 +35,64 @@
     <t>MODEL</t>
   </si>
   <si>
-    <t xml:space="preserve">ACCURACY </t>
-  </si>
-  <si>
     <t>KIND OF DATASET (REDUCED,FULL, ..)</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>CNN+LSTM</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>Full ( 113 sensors)  ( configurazione paper Deep conv lstm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full ( 113 sensors)  ( configurazione paper 2018) </t>
+  </si>
+  <si>
+    <t>90.7</t>
+  </si>
+  <si>
+    <t>91.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiindows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2 </t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP </t>
+  </si>
+  <si>
+    <t>24_12 ?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CNN+DENSE(TOMMY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN+DENSE(CIP) </t>
+  </si>
+  <si>
+    <t>86.5</t>
+  </si>
+  <si>
+    <t>24_12</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -98,12 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -381,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -392,10 +447,10 @@
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,10 +458,143 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteociprian/OneDrive - Università degli Studi di Padova/università/magistrale/SecondoSemestre_Secondo_Anno/HDA/Project_HDA/HDA_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Documents/hda_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A69022-D348-4C4C-BB13-726C1AD868C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t xml:space="preserve">TASK </t>
   </si>
@@ -47,36 +48,18 @@
     <t>f1-score</t>
   </si>
   <si>
-    <t>Full ( 113 sensors)  ( configurazione paper Deep conv lstm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full ( 113 sensors)  ( configurazione paper 2018) </t>
   </si>
   <si>
-    <t>90.7</t>
-  </si>
-  <si>
-    <t>91.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wiindows </t>
   </si>
   <si>
-    <t xml:space="preserve">24_12 </t>
-  </si>
-  <si>
     <t xml:space="preserve">B2 </t>
   </si>
   <si>
-    <t>90.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">MLP </t>
   </si>
   <si>
-    <t>24_12 ?</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -86,19 +69,43 @@
     <t xml:space="preserve">CNN+DENSE(CIP) </t>
   </si>
   <si>
-    <t>86.5</t>
-  </si>
-  <si>
-    <t>24_12</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>90.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_6 </t>
+  </si>
+  <si>
+    <t>24_6</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>89.89</t>
+  </si>
+  <si>
+    <t>MCF</t>
+  </si>
+  <si>
+    <t>88.07</t>
+  </si>
+  <si>
+    <t>88.89</t>
+  </si>
+  <si>
+    <t>88.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tutti </t>
+  </si>
+  <si>
+    <t>PCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -152,22 +159,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,41 +477,41 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,16 +519,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -537,64 +550,77 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
